--- a/src/test/resources/TestData/DSAlgo1.xlsx
+++ b/src/test/resources/TestData/DSAlgo1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\MAvenProjects\NumpyNinja\SDET229-DSAlgoTestNG-Local\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harig\eclipse-workspace\DSAlgoTestNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37598B7D-63B8-4942-BF6D-576263137505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B9EB3-5DF6-470C-BBD5-B7CDBE4E199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="15660" windowHeight="11280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="23" r:id="rId1"/>
@@ -20,25 +20,23 @@
     <sheet name="PracticepageValidcode" sheetId="21" r:id="rId5"/>
     <sheet name="HomePage_GetStarted" sheetId="17" r:id="rId6"/>
     <sheet name="Sign-IN" sheetId="5" r:id="rId7"/>
-    <sheet name="Arrays" sheetId="6" r:id="rId8"/>
-    <sheet name="Queue" sheetId="13" r:id="rId9"/>
-    <sheet name="Graph" sheetId="24" r:id="rId10"/>
-    <sheet name="PracticepageInValidcode" sheetId="25" r:id="rId11"/>
+    <sheet name="Registration" sheetId="26" r:id="rId8"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId9"/>
+    <sheet name="Queue" sheetId="13" r:id="rId10"/>
+    <sheet name="Graph" sheetId="24" r:id="rId11"/>
+    <sheet name="PracticepageInValidcode" sheetId="25" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
   <si>
     <t>Username</t>
   </si>
@@ -301,12 +299,69 @@
   <si>
     <t>print('Graph Representations')</t>
   </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>VerifyblankUsername_validPassword</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>VerifyvalidUsername_blankPassword</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>user@123</t>
+  </si>
+  <si>
+    <t>VerifypasswordWithOnlyNumbers</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>VerifypasswordWithOnlySpecialChar</t>
+  </si>
+  <si>
+    <t>@#$</t>
+  </si>
+  <si>
+    <t>VerifypasswordWithLessthan8character</t>
+  </si>
+  <si>
+    <t>jac!@</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>testuser$</t>
+  </si>
+  <si>
+    <t>testuser%</t>
+  </si>
+  <si>
+    <t>testuser*</t>
+  </si>
+  <si>
+    <t>test12345</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>VerifyUsernameInvalidSpecialchar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +406,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,8 +446,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,13 +789,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -750,6 +817,109 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5A8FA-B3D8-4212-BE38-5DD47FC3F9FE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C302268-2E5E-48D6-818C-EFB59CE564A7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -757,9 +927,9 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -776,7 +946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -793,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -815,17 +985,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D20912-6BB3-425B-82E1-967858FD17B3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -836,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -847,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -858,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -869,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -893,14 +1063,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
-    <col min="2" max="2" width="32.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -911,7 +1081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -922,7 +1092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -933,7 +1103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -944,7 +1114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -955,7 +1125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -966,7 +1136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -990,14 +1160,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1008,7 +1178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.8">
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -1019,7 +1189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="82.8">
+    <row r="3" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -1030,7 +1200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="82.8">
+    <row r="4" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -1041,7 +1211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="82.8">
+    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1066,14 +1236,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.296875" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1084,7 +1254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -1095,7 +1265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -1106,7 +1276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -1117,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1140,14 +1310,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>71</v>
       </c>
@@ -1158,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1169,7 +1339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1180,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1191,7 +1361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1215,14 +1385,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="30.296875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1233,7 +1403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1244,7 +1414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1255,7 +1425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1266,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1277,7 +1447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1299,7 +1469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1320,18 +1490,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1345,7 +1515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1355,7 +1525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +1537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1456,19 +1626,194 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371134D4-2714-4563-9DCD-F2A7D5736C4D}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12345678</v>
+      </c>
+      <c r="D4" s="5">
+        <v>12345678</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{17A9D0CA-77C4-4B07-9ADA-0DB69C119498}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{ABDE134D-4523-4E1A-9F68-FDC30006136D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22D396-A6D6-4F31-949B-372918D87023}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="39.796875" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,107 +1872,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5A8FA-B3D8-4212-BE38-5DD47FC3F9FE}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>